--- a/500all/speech_level/speeches_CHRG-114hhrg23246.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg23246.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412649</t>
   </si>
   <si>
-    <t>John Katko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Katko. The Committee on Homeland Security, Subcommittee on Transportation Security, will come to order.    A bit of housekeeping before we proceed. I ask unanimous consent that the gentlewoman from Arizona, Ms. McSally, be allowed to sit on the dais and participate in this hearing.    Without objection, so ordered.    The subcommittee is meeting today to better understand the root causes of increased passenger wait times and gain local perspectives on this important issue.    I now recognize myself for an opening statement.    As the summer holiday season approaches, we are in the midst of a crisis at our airports. American families are planning to enjoy their time off traveling to points near and far, business men and women are doing the same that they do all year round, and the added crush of the travel season, leisure season, is causing particular problems.    As they begin their journeys, they will arrive at airports around the country only to be confronted with longer and longer lines at many airports at TSA checkpoints, causing some to return home after missing their flights and stranding others to take up temporary residence at the airport on a cot, like we saw in Chicago a few weeks ago.    Unfortunately, this is not an isolated incident, and this committee continues to receive reports from around the country describing delays at TSA checkpoints in excess of 2 hours. On Good Friday, March 25, 600 passengers missed their flights at the Charlotte Douglas International Airport due to an apparent lack of TSA manpower and checkpoint inefficiencies. In fact, that airport was nearly forced to effect a ground stoppage, a literal standstill of air traffic, due to delays at the checkpoint.    This is wholly unacceptable. I, along with the American taxpayer, expect the security at America's airports to be streamlined, effective, and efficient.    This committee has worked tirelessly with TSA to ensure that the manpower and technology they need to operate checkpoints at optimal levels is there.    While TSA realized there would be an issue and communicated to the American public that increased wait times should be expected at our Nation's airports as we enter the high travel seasons, they did not have a clear picture of the resources they would need to tackle this problem and clearly were not prepared for it.    The TSA fiscal year 2017 budget request did not account for any of the increases in overtime or staffing that they are now requesting to meet their basic screening function. It wasn't until widespread media reports of passengers on cots, which is completely unacceptable, and excessive wait times that TSA made the decision to request to reallocate assets to help combat the issue.    I, my colleagues on this committee, and Ms. McSally are growing increasingly frustrated that TSA needs constant prodding to effect positive changes at the agency.    This committee has passed several pieces of bipartisan legislation that would go a long way towards improving the overall security of airports, as well as improving checkpoint optimization. But the Senate refused to expedite passage of these important bills, standing on principle or some esoteric theory about how the agency should be run. In short, they are trying to polish the brass while the fire bell is ringing.    For example, my TSA PreCheck bill would require TSA to expand and aggressively market the program, thereby increasing the number of trusted travelers into the system, diverting them into PreCheck checkpoints, and alleviating the stress on the general public checkpoints. However, due to typical Washington antics, this bill, amongst others, remains stalled.    When I came to Congress I made a commitment to my constituents to tackle problems head on and just get things done. Last week, the subcommittee convened representatives from airports and airlines from across this country to discuss this wait time crisis and hear directly from them about what they think needs to be done to help. It was a very productive meeting, and it gave me faith that the process in Congress can and does work sometimes.    The message was consistent: TSA needs to collaborate with individual airlines and airport authorities to coordinate sufficient staffing levels on a local basis.    I have heard your message, and later today I will introduce the Checkpoint Optimization and Efficiency Act of 2016, which will require TSA to maximize all of their available resources and give airports and airlines a seat at the table to ensure those resources are being utilized and allocated in the most effective and efficient manner.    Make no mistake, security is first and foremost. Those that wish to do us harm continue to plot against the aviation community, and we must be ready to confront them at every turn. But TSA has to find a way to maintain security while fulfilling its duty to keep passengers safely moving through the system. They have the capability to do it. TSA has to be forward-leaning and creative to address obstacles as they present themselves, just like all of us do in our daily jobs.    I would like to thank our witnesses for taking time out of their busy schedules and making multiple trips on short notice to Washington to aid us in solving this problem. I am lucky, honored, and fortunate to have the Syracuse International Airport, which I fly in and out of each week, as the well-oiled machine that it is, compared to the horror stories we heard at last week's roundtable discussion on checkpoint efficiency. I have Christina Callahan, one of the witnesses here, to thank for that.    I would like to thank all of you for being here today, and I look forward to hearing your perspective on the best and most effective way forward.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412506</t>
   </si>
   <si>
-    <t>Donald M. Payne, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Payne. Thank you, Mr. Chairman. I wore them just for you.</t>
   </si>
   <si>
@@ -82,27 +76,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Callahan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Callahan. Thank you. Good morning. Chairman Katko and Ranking Member Payne, and to the other Members of the Transportation Security Committee, thank you. Thank you for inviting us to today's hearing on an issue that requires both immediate attention and long-term sustainable solutions: How to handle growing lines at TSA checkpoints at airports across the country while maintaining the high standards for passenger and baggage screening we need in order to keep the flying public safe.    Syracuse International Airport is a small commercial hub serving 2 million passengers annually, providing cargo and general aviation services to central New York. It employs hundreds of people and is a vital component of our economy. As an origination and destination airport, we serve 17 direct markets and we are the departure point for 1 million outbound passengers every year.    While Syracuse has not experienced the recent increased long security checkpoint times, we are part of a National transportation system that links our passengers to the airports represented here today, and working towards a solution as we enter one of the busiest travel seasons in the year is as important to Syracuse as it is to my fellow airports. What I hope to offer today, in addition to echoing my fellow airports' concerns, are examples of the steps we have taken to address our issues at home.    Ensuring the security and safety of the flying public, employees, and other airport users is the top priority for airports. Above all else, we are entrusted by the traveling public to provide safe and secure air transportation. Checkpoint wait times that exceed an hour or longer at some of our Nation's busiest airports have negative impacts on all elements of the air transportation system. Passengers are frustrated, taking their frustrations out on TSA, airport, and airline employees. The anxiety caused by concern over missing a flight, or even worse, missing that flight, creates an environment that is already challenged and difficult.    Several factors have been identified that have contributed to the checkpoint wait time issues. They include no increase in the number of Transportation Security Officers between fiscal years 2015 and 2016, the high rate of TSO attrition followed by the lengthy process to hire new TSOs, record growth in passenger traffic and lagging numbers in PreCheck enrollment. Combined, they have created a perfect storm that has led to recent events.    Working together, the airports, TSA, the airlines, and industry advocates have identified short- and long-term recommendations that focus on key areas, including the need for sufficient TSA staffing, increased PreCheck enrollment and participation, and the continued need to modernize airport infrastructure. We do not, however, support the imposition of any new passenger fees. Rather, we believe that the portion of the 9/11 passenger security fees that are currently being used to pay for other Government programs should be used to fund     Let me talk about PreCheck for just a moment. Chairman Katko was at the airport last November when we unveiled the TSA enrollment center in Syracuse. PreCheck has proven to be very successful at our airports. Currently, almost 40 percent of the flying public is enrolled in PreCheck.    While we believe that this is the result of having an enrollment center in the terminal, our efforts to educate the public on the benefits of PreCheck have been very important. While seemly insignificant, the airport's role in incentivizing people to enroll in PreCheck by giving them free parking has resulted in the increased numbers of people enrolling. While not all airports are in a position to offer incentives, we have found that it has encouraged enough people to come out and spend an hour and enroll in PreCheck.    I would be remiss if I did not bring up the need to modernize airport infrastructure. We have spent time and money improving our airport, consolidating our checkpoint into one central checkpoint, to introduce efficiencies at every level. A central checkpoint was designed to bring the physical screening of passengers and baggage in alignment. It improved passenger and baggage screening at several levels. It allowed for the introduction of new screening equipment, consolidated TSA resources into one, and it has allowed us to implement new security requirements, such as the screening of all concession employees.    We have also been on the cutting edge of security by installing automated exit portals. These automated exit portals allow passengers and employees to exit the concourses safely and securely, without--preventing re-entry. It also eliminates the need to staff the exit lanes, thus saving the airport money and reducing the human error element. Let me stress that this project would not have been possible without the use of the airport's passenger facility charges.    To place the blame solely on TSA is unfair and not a solution to the problem. Rather, we must work together to address the major underlying issues before you today.    In closing, I would like to offer my gratitude to Chairman Katko and to the other Members of the subcommittee for taking the time to listen to our concerns. Thank you for inviting us and for your continued commitment to the safety and security of airports and the people who use them every day.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Katko. Thank you, Ms. Callahan. Syracuse is indeed very fortunate to have you at the helm at the airport. I can tell you from personal experience that it is a generally very pleasurable experience. The only thing that is difficult is when you are trying to get a flight to Kennedy and it always seemed to be delayed.    But other than that, I really appreciate your efforts. Your forward thinking on getting a kiosk out at the airport, your forward thinking by giving free parking to TSA as like a marketing thing, that thinking outside the box, that is all good stuff. So thank you very much.    I would like to have Ms. McSally introduce her friend from the Tucson airport.    Ms. McSally.</t>
   </si>
   <si>
-    <t>McSally</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Chairman Katko. I just want to say I really appreciate you being my wingman on this issue and many issues, letting me join this hearing today. I am also grateful for you inviting Bonnie Allin to testify this morning.    Bonnie is the president and CEO of the Tucson Airport Authority responsible for promoting aviation services and related economic development for southern Arizona, including operations and maintenance of the Tucson International Airport and Ryan Airfield, where she has first-hand experience on the challenges related to TSA staffing.    Bonnie began her career in aviation in 1976 with the Tucson Airport Authority, then moved to Texas, where she worked for Corpus Christi International, ending her tenure as director of aviation. She holds the designation of accredited airport executive and is the past chairman of the International Association of Airport Executives.    I am glad to have Bonnie with us today, and I yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Katko. Ms. Allin, you are on.</t>
   </si>
   <si>
-    <t>Allin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Allin. Thank you, Representative McSally, for the introduction.    Good morning, Chairman Katko, Ranking Member Payne, honorable Members of the committee, Representative McSally. It is a privilege to appear before you this morning to discuss Tucson's challenges with passenger screening wait times.    Mr. Chairman and Members, thank you for your leadership on airport security and the protection of our passengers.    Representative McSally, thank you for your leadership in protecting Tucson International Airport in southern Arizona.    I was fortunate to participate in last week's roundtable, which you mentioned, Mr. Chairman, and the discussion, and I am truly appreciative of the time and attention you are devoting to understanding the causes of checkpoint processing delays and your efforts to seek both short- and long-term solutions. Safety and security of our people, property, and aircraft are the highest priority.    For those of you unfamiliar with Tucson International Airport, we are an origination and destination airport. Therefore, less than 5 percent of our passengers connect through. Instead, all are screened by local TSA. Historical wait times average 10 to 15 minutes, with our peak times rarely exceeding 20, 25 minutes maximum, even when we had passenger levels 25 percent higher than we do today.    Tucson's high season, as opposed to many other airports, is November through March, with a very strong peak season mid-January through March.</t>
   </si>
   <si>
@@ -115,27 +100,18 @@
     <t xml:space="preserve">    Mr. Katko. Thank you, Ms. Allin, for your testimony. We appreciate you being here today. It is interesting to juxtapose your experiences at your airport with what we experience in Syracuse. It seems like the larger the airport, the more acute the problems.    Now we are going to talk to Ms. Beairsto about that.    So, Ms. Beairsto, I appreciate your testimony today, and you have 5 minutes. Thank you.</t>
   </si>
   <si>
-    <t>Beairsto</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Beairsto. Thank you, Chairman Katko, Ranking Member Payne, and Members of the subcommittee for inviting me to testify today on this important issue of providing efficient and safe passenger screening at our airports. My name is Lydia Beairsto. I serve as the managing deputy commissioner for public safety and security for the Chicago Department of Aviation, overseeing O'Hare and Midway International Airports.    Chicago manages 2 of the Nation's busiest airports, O'Hare and Midway, and it is the only single-city system that serves as a hub for 3 major airlines, United, American, and Southwest Airlines. In 2015, 98 million passengers passed through our airports combined. In 2016 and beyond, those numbers are projected to grow.    Our airports serve as an economic engine, contributing $45 billion in annual economic activity, creating 540,000 jobs. We are a major part of the air ecosystem. When O'Hare sneezes, the rest of the country catches a cold.    Passenger safety and security is our top priority, and it is certainly mine. In March, suicide bombings at Brussels Airport killed 16 people in the airport check-in areas and 16 others in the city metro station. Long security lines, large crowds of passengers in queues are not just an inconvenience. They, themselves, expose a vulnerability and security risk.    By more efficiently moving passengers into the screened and secure areas, we are increasing safety and security. This year, there has been a 7 percent growth in passenger activity, while TSA staffing levels declined nearly 17 percent.    Airports and airlines began raising concerns about security staffing for the summer travel season as early as last summer. By early May of this year, as our peak travel season started, we started experiencing a total breakdown. Passenger wait times were consistently 60 minutes or more. Airline passengers have reported wait times as high as 120 minutes, with thousands of passengers missing their flights.    The delays we experienced were knowable and preventable. Staff resources went down as security operating procedures changed.    Moving forward to address these issues, TSA resources are needed to increase and meet passenger demand. TSA needs to manage existing resources better. TSA needs flexibility and local authority to respond to situations on the ground.    May 13, a traveler at Midway Airport posted a YouTube video documenting significant checkpoint lines. Six out of 17 lanes were staffed by TSA.    At O'Hare, the situation reached crisis point on Sunday, May 15, where without adequate staffing American Airlines reported 543 passengers were impacted by long lines. United Airlines experienced 37 flight delays and rebooked over 4,300 passengers, many of which, as you noted, Chairman, stayed overnight at the airport sleeping on cots.    Mayor Rahm Emanuel worked with key officials from DHS, TSA, and members of Chicago's Congressional delegation to secure immediate resources for the city. TSA sent in optimization teams. They committed to add 58 officers to O'Hare, converted over 160 part-timers to a full-time duty, increased overtime, and provided 8 additional K-9 teams to O'Hare from around the country.    We greatly appreciate Administrator Neffenger's responsiveness and that resources arrived so quickly for O'Hare. We are working to ensure similar prompt responses to the needs and concerns at Midway Airport.    This response was possible because Congress approved TSA's reprogramming request, and we are grateful to you for taking that quick action.    To ensure transparency, we will be releasing a biweekly scorecard showing average and maximum wait times, staffing and resource levels provided by TSA.    In the short term, in order to manage the spring and summer travel season ahead, there are a few critical resources and management steps that we need to ensure are happening:    Reallocate passenger-screening K-9 teams based on the aviation system priorities.    Ensure TSA is transparent about its staffing allocation models and levels; information transparency helps us better predict potential staffing strategies and shortages.    Provide Federal security directors the ability to make local decisions about manpower allocation and overtime.    Ensure checkpoints are open on time or risk playing catch-up all day.    Streamline TSA PreCheck enrollment process.    In the long term we need to be looking at ramping up resources, including passenger screening K-9s. To prepare for future growth, we need to start now, as training K-9s can take approximately up to 8 months. We need to invest in our security infrastructure and checkpoint expansion projects and invest in technology solutions that enhance security and achieve operational efficiencies.    Thank you for the opportunity to discuss these important and timely issues with you today. We are eager to work with you and secure needed resources to address short-term and long-term airport security challenges.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Katko. Thank you, Ms. Beairsto. Much of what you described towards the end of your testimony is embodied in the bill we are going to be presenting today to Congress. It is born out of our discussions with some of the folks in the audience last week and some of you, and I appreciate that. It is important.    One side thing that you said that caught me was opening the gates on time. If I understand, and perhaps you can all comment on this later, sometimes they open the gate at, like, 5:30 in the morning, but they don't actually start screening passengers for a while because they have to calibrate the machines and stuff. Then once the back-up starts, you can't catch up. That is just poor planning.    So there is much more to talk about with all of, but thank you very much for your testimony.    I now recognize Ms. Kerry Philipovitch, the senior vice president for customer experience at American Airlines--which I know very well because that is how I get here every week--for her testimony.</t>
   </si>
   <si>
-    <t>Philipovitch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Philipovitch. Thank you for flying with us.    Good morning Chairman Katko, Congressman Payne, and Members of the subcommittee. My name is Kerry Philipovitch, senior vice president of customer experience at American Airlines, testifying on behalf of Airlines for America. Thank you for inviting me here today to discuss the impact TSA security lines is having on our customers.    There is nothing more important to the airline industry than the safety and security of our passengers, employees, and cargo. We have never seen TSA wait times that affect airlines and passengers throughout the United States like we have seen in recent months.    Without immediate leadership and innovation, the 231 million Americans that will board a plane this summer will be frustrated and angry. We are working collaboratively with the TSA to develop and implement solutions to the pressing problem of excessive wait times.    Last year, programs that had been in place to drive efficiency and increase security throughput were eliminated without adding resources required to support longer passenger processing times. The result is a screening process that is causing unacceptably long security lines and a frustrated flying public.    Our discussions with TSA revealed 3 other contributing factors. First, it appears TSA did not adjust its staffing model after screening protocols were changed. Second, TSA is experiencing abnormally high attrition and is unable to retain transportation security officers, or TSOs. Third, the TSA PreCheck program, which allows low-risk passengers to go through expedited screening, has not met enrollment goals.    All of these factors combined cause a systemic slowdown in passenger processing at security checkpoints, resulting in delays and missed flights. Year-to-date, more than 70,000 American Airlines customers have missed flights due to excessive wait times.    The same challenges at the passenger checkpoints bog down screening of checked baggage, which is also a core TSA function. This year alone, over 40,000 checked bags were delayed in TSA screening and did not travel on their scheduled flights.    To say customers are agitated is putting it mildly and the public outcry has resonated. Congress recently reallocated $34 million in funding to the TSA to hire more TSOs by June 15. We are also glad to see that TSA is working to shift K-9 teams to airports experiencing the worst delays, rebalancing staffing, and hiring more TSOs.    However, TSA needs to do more, and more collaboration is needed to minimize the impact on summer travelers, airports, airline employees, and the overall economy.    Airlines are pitching in to do our part. We are committing millions of dollars to fund nonsecurity functions like bin running and queue management so TSAs can focus solely on screening customers.    At American this summer, we are adding an additional $4 million on top of the $17 million already planned to spend this year to facilitate passengers through TSA checkpoints at our largest airports. Airlines have advised customers to arrive at the airport 2 hour in advance of a domestic flight and 3 hours prior to an international departure to ensure sufficient time to clear security. This added time in the travel process is inconvenient and will likely affect less frequent travelers who are not familiar with the screening process.    We are launching aggressive campaigns to promote TSA PreCheck to our customers and employees. As PreCheck enrollment increases, however, TSA must commit to keep PreCheck lanes open and sufficiently staffed throughout the day, especially during peak travel times.    The industry is also exploring ways to facility support for additional K-9 teams, including whether TSA can use certified K-9s from other Governmental agencies to conduct passenger screening. When K-9 teams are deployed, TSA can increase passengers going through TSA PreCheck.    We as an industry are doing our part to help TSA manage through this challenge. However, airline actions alone cannot solve the problem. We need a partner in TSA that will consider innovative ideas to mitigate wait times immediately and in the long run.    In the short term, to augment resources, TSA could declare an all-hands-on-deck for the summer, much like we do at our airports during peak and irregular operations. All available staff should be assigned to help at passengers screening checkpoints. TSA resources should be prioritized based on airports with the most need and projected traffic volumes.    TSA could look at ways to spur enrollment in TSA PreCheck by streamlining the enrollment process. To ensure that enrollment resources don't become a new bottleneck, TSA should expedite its selection of third-party enrollment providers.    We also support the idea to give Federal security directors the ability to cooperate with their airline partners to make local decisions about manpower resource allocation without having to consult TSA headquarters.    All parties need to work collaboratively to manage through the summer. Full transparency to staffing models and performance data is required to engage all stakeholders in troubleshooting issues. We can't be a part of the solution if we don't have all the facts.    To that point, we applaud TSA for its decision this week to stand up a National command center and institute daily stakeholder calls to better prepare for each day's challenges.    In the long run, TSA could review current security protocols to ensure there are no unnecessary procedures. As part of this review, TSA should consider additional methods for increasing risk-based screening, some of which were discontinued this year.    Airlines and airports are eager to work with TSA to expedite next-generation screening technology, including innovation lanes.    Finally, TSA must create a position that reports to the administrator to advocate for customers within the TSA, much as airlines and many airports have executives dedicated to improving customer experience.    These are just a few ideas that American Airlines and A4A believe can help reduce the congestion in security screening. Of course, Congress can help by ensuring Administrator Neffenger and his team have the tools and resources needed to improve screening, including ensuring that the passenger security fee collected for TSA goes to TSA.    Ultimately, the TSA screening issue was not created overnight and will not be solved overnight. However, we must work together to offer ideas and resources to TSA while Administrator Neffenger and his team review current screening protocols, funding priorities, and management practices.    Thank you for the opportunity to testify today, and I would be happy to answer any questions you might have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Katko. Thank you, Ms. Philipovitch. I appreciate your testimony.    We will have several follow-up questions for all of you, of course.    I now recognize David Cox, National president of the American Federation of Government Employees, for his testimony.    Mr. Cox.</t>
   </si>
   <si>
-    <t>Cox</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cox. Thank you, Mr. Chairman, Representative Payne, Members of the committee. I am proud to testify today on behalf of the 42,000 transportation security officers, TSOs, that AFGE represents that stand on the side of the safety of the flying American public.    TSOs point to 4 issues that have conspired to produce the acute situation at airports we see today. No. 1, the size of the TSO workforce did not keep pace with passenger volume. No. 2, TSA's budget was deprived of much-needed funding by the decision of Congress to divert a portion of the security fee to deficit reduction. No. 3, the focus on the patchwork of airline, airport, and contract employees shifted focus away from the TSO workforce that is the present and future of aviation security. No. 4, TSOs are subject to second-class treatment that hurts the morale of TSOs who stay on the job and causes too many experienced screeners to leave TSA.    As passenger volume has increased 15 percent between 2013 and 2016, TSA lost almost 5,000 screeners and failed to replace them. TSA's hiring was focused on part-time workers who have a much higher attrition rate than full-time TSOs. TSA's staffing methodology and model depended on PreCheck enrollments that never happened. Congress cut the budget for TSA personnel and imposed arbitrary caps on the number of full-time screeners.    Staffing shortages are obvious to the public because they experience long lines. Least obvious are the effect of shortages on the TSO workforce--missed trainings, meals, and rest breaks, missed position rotations that are necessary to keep your focus, cancelled days off, and months of mandatory overtime, resulting in very tired and erratic scheduling. This is no way to run airport security.    AFGE advocates an increase of 6,000 additional full-time TSOs to the workforce. The figure represents the decrease in the size of the TSA workforce since 2011 as passenger volume has grown 15 percent.    AFGE also calls on Congress to end the arbitrary and severe cap on full-time TSOs. When Congress voted to divert 60 cents of the $5.60 security fee per enplanement to the Treasury rather than TSA, it deprived the agency of 1.25 billion--that is billion with a ``b''--dollars each year. It is time for Congress to dedicate the proceeds of the security fee to TSA to be used for its intended purpose, funding the agency's security mission and hiring staff.    Introducing airline and airport employees and private contract employees into the framework of checkpoint security is, at best, a temporary bandage. Years of on-the-job experience and commitment to the public are the services that are lost when the TSO workforce is replaced with airport and airline employees.    Airport authorities should be aware that they are not going to get more screeners under the Screening Partnership Program and that there are long checkpoint waits at airports with private screeners.    Despite the importance of their work, TSOs receive second-class treatment from their employer, the Federal Government. TSA is the only Federal agency that is allowed to excuse itself from the fundamental workplace rights and protections found in title 5 of the U.S. Code. TSA does not follow the Fair Labor Standards Act and the Office of Personnel Management guidelines on leave. TSA does not have statutory title 7 protections against discrimination, and they are not paid under the general schedule like the majority of Federal workforce. TSOs lack the ability to appeal adverse personnel actions to a neutral third party, like the Merit System Protection Board, even those TSO management has that right.    To paraphrase the late Dr. Martin Luther King, Jr., justice delayed has been justice denied to the TSO workforce. It is well within the authority of both the Congress and TSA to provide TSOs the same workplace rights and protections as other Federal workers.    We urge Administrator Neffenger to apply title 5 rights and protections to the TSO workforce. Congress should pass H.R. 4488, the Rights of Transportation Security Officers Act, introduced by Representatives Bennie Thompson and Nita Lowey. The bill requires that TSA follow the same workplace rules as most agencies in the Federal Government. Congress should also ensure funding to TSA to provide 5 percent retention raises to TSOs who have been on the job for 2 or more years.    Transportation Security Officers do all they can to screen passengers. That is why AFGE pledges to work with TSA, Congress, and the public on solutions for the long lines. Mr. Chairman, AFGE is asking and seeking a seat at the table to be part of the solution, not part of the problem, in what we are currently experiencing in TSA.    Thank you very much for allowing me to testify today. I would be glad to take any questions.</t>
   </si>
   <si>
@@ -235,9 +211,6 @@
     <t>412622</t>
   </si>
   <si>
-    <t>Earl L. "Buddy" Carter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman.    Thank all of you for being here. This is obviously a very important subject to us. I am glad to see you all because I have some important questions I want to ask you.    I have the honor and privilege of representing the First Congressional District of Georgia. That includes the entire coast of Georgia. Georgia is unique in the sense that we have a lot of small airports, a lot of rural areas. We also, as you know, have Hartsfield-Jackson Airport, which is the busiest airport in the country, in the world. That presents a dilemma. But I want to ask you some questions about that, and I am very interested to know your responses to this.    What we have been hearing and what I have been hearing from a lot of the airport officials is that there exists somewhat of a disconnect between the local TSA officials, the airlines, the airport officials, and then upper management, that management in TSA up here in Washington, DC, if you will. Have any of you experienced that? Can you comment on that? Ms. Allin or whoever wants to comment. Just very quickly, because I have a bunch here.</t>
   </si>
   <si>
@@ -302,9 +275,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Katko. Thank you, Mr. Carter.    I ask unanimous consent that the gentlelady from Texas, Ms. Jackson Lee, be allowed to sit on the dais and participate in this hearing.    Without objection, so ordered.</t>
-  </si>
-  <si>
-    <t>Jackson Lee</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Let me express my appreciation to the Chairman and the Ranking Member for your courtesies. This is a committee that I have a great affection for because I indicated before that the TSOs are the first line of defense, if you will, for the neighborhood, for the Nation's aviation security. So let me thank all of you for your presence here.    I have some direct questions and then I want to raise a series of questions with Mr. Cox. Thank you very much for representing very fine professional staff, which I want to be more professional, less part-time, more recruitment, increased salaries, and the numbers that you would like to have.    So I would ask the representative from Chicago, Illinois, the admiral was here just yesterday, and I understand that the wait has gone to 15 minutes. I would like to see what--you are obviously here today, Thursday--I would like to hear your assessment. Have the lines improved, the time and the waits improved?</t>
@@ -892,11 +862,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -918,11 +886,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -942,13 +908,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -970,11 +934,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -994,13 +956,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1022,11 +982,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1046,13 +1004,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1074,11 +1030,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1098,13 +1052,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1126,11 +1078,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1150,13 +1100,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1178,11 +1126,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1202,13 +1148,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1230,11 +1174,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1254,13 +1196,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1282,11 +1222,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1306,13 +1244,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1334,11 +1270,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1358,13 +1292,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1386,11 +1318,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1410,13 +1340,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1438,11 +1366,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1462,13 +1388,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1490,11 +1414,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1514,13 +1436,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1542,11 +1462,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1566,13 +1484,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1594,11 +1510,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1618,13 +1532,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1646,11 +1558,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1670,13 +1580,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1698,11 +1606,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1722,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1750,11 +1654,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1774,13 +1676,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1802,11 +1702,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1826,13 +1724,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1854,11 +1750,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1878,13 +1772,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1906,11 +1798,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1930,13 +1820,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1956,13 +1844,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1982,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2008,13 +1892,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2034,13 +1916,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2060,13 +1940,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2086,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2112,13 +1988,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2138,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2166,11 +2038,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2190,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2216,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2242,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>72</v>
-      </c>
-      <c r="G54" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2268,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2294,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>72</v>
-      </c>
-      <c r="G56" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2320,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2346,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>72</v>
-      </c>
-      <c r="G58" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2372,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2398,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>72</v>
-      </c>
-      <c r="G60" t="s">
+        <v>64</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
         <v>73</v>
-      </c>
-      <c r="H60" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2424,13 +2276,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2450,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>72</v>
-      </c>
-      <c r="G62" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2476,13 +2324,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2502,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>72</v>
-      </c>
-      <c r="G64" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2528,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2554,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>72</v>
-      </c>
-      <c r="G66" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2580,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2606,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>72</v>
-      </c>
-      <c r="G68" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2632,13 +2468,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2658,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>72</v>
-      </c>
-      <c r="G70" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2684,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2710,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>72</v>
-      </c>
-      <c r="G72" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2738,11 +2566,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2762,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>96</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2788,13 +2612,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2814,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s">
-        <v>96</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2840,13 +2660,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2866,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>96</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2892,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2918,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s">
-        <v>96</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2944,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2970,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s">
-        <v>96</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2996,13 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3022,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" t="s">
-        <v>96</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3048,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3074,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>96</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3100,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3126,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s">
-        <v>96</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3152,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3178,13 +2972,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>96</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3204,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3230,13 +3020,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>96</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3256,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3282,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s">
-        <v>96</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3308,13 +3092,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3334,13 +3116,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>96</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3360,13 +3140,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3386,13 +3164,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>96</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3412,13 +3188,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3438,13 +3212,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>96</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3464,13 +3236,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3490,13 +3260,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>96</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3516,13 +3284,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3542,13 +3308,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" t="s">
-        <v>96</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3568,13 +3332,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3594,13 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s">
-        <v>96</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3620,13 +3380,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
-      </c>
-      <c r="G107" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3646,13 +3404,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" t="s">
-        <v>96</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3674,11 +3430,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3698,13 +3452,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s">
-        <v>96</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3726,11 +3478,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3750,13 +3500,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" t="s">
-        <v>96</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3776,13 +3524,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3802,13 +3548,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" t="s">
-        <v>96</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3830,11 +3574,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3854,13 +3596,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3880,13 +3620,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>21</v>
-      </c>
-      <c r="G117" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3906,13 +3644,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3932,13 +3668,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3958,13 +3692,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3984,13 +3716,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>21</v>
-      </c>
-      <c r="G121" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4010,13 +3740,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4036,13 +3764,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>21</v>
-      </c>
-      <c r="G123" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4062,13 +3788,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4088,13 +3812,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>21</v>
-      </c>
-      <c r="G125" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4114,13 +3836,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4140,13 +3860,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>21</v>
-      </c>
-      <c r="G127" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4166,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>21</v>
-      </c>
-      <c r="G128" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4194,11 +3910,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>12</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4218,13 +3932,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>15</v>
-      </c>
-      <c r="G130" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4246,11 +3958,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4270,13 +3980,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>15</v>
-      </c>
-      <c r="G132" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4296,13 +4004,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>21</v>
-      </c>
-      <c r="G133" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4322,13 +4028,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>15</v>
-      </c>
-      <c r="G134" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4348,13 +4052,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>21</v>
-      </c>
-      <c r="G135" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4374,13 +4076,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>15</v>
-      </c>
-      <c r="G136" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4402,11 +4102,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg23246.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg23246.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412649</t>
   </si>
   <si>
+    <t>Katko</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Katko. The Committee on Homeland Security, Subcommittee on Transportation Security, will come to order.    A bit of housekeeping before we proceed. I ask unanimous consent that the gentlewoman from Arizona, Ms. McSally, be allowed to sit on the dais and participate in this hearing.    Without objection, so ordered.    The subcommittee is meeting today to better understand the root causes of increased passenger wait times and gain local perspectives on this important issue.    I now recognize myself for an opening statement.    As the summer holiday season approaches, we are in the midst of a crisis at our airports. American families are planning to enjoy their time off traveling to points near and far, business men and women are doing the same that they do all year round, and the added crush of the travel season, leisure season, is causing particular problems.    As they begin their journeys, they will arrive at airports around the country only to be confronted with longer and longer lines at many airports at TSA checkpoints, causing some to return home after missing their flights and stranding others to take up temporary residence at the airport on a cot, like we saw in Chicago a few weeks ago.    Unfortunately, this is not an isolated incident, and this committee continues to receive reports from around the country describing delays at TSA checkpoints in excess of 2 hours. On Good Friday, March 25, 600 passengers missed their flights at the Charlotte Douglas International Airport due to an apparent lack of TSA manpower and checkpoint inefficiencies. In fact, that airport was nearly forced to effect a ground stoppage, a literal standstill of air traffic, due to delays at the checkpoint.    This is wholly unacceptable. I, along with the American taxpayer, expect the security at America's airports to be streamlined, effective, and efficient.    This committee has worked tirelessly with TSA to ensure that the manpower and technology they need to operate checkpoints at optimal levels is there.    While TSA realized there would be an issue and communicated to the American public that increased wait times should be expected at our Nation's airports as we enter the high travel seasons, they did not have a clear picture of the resources they would need to tackle this problem and clearly were not prepared for it.    The TSA fiscal year 2017 budget request did not account for any of the increases in overtime or staffing that they are now requesting to meet their basic screening function. It wasn't until widespread media reports of passengers on cots, which is completely unacceptable, and excessive wait times that TSA made the decision to request to reallocate assets to help combat the issue.    I, my colleagues on this committee, and Ms. McSally are growing increasingly frustrated that TSA needs constant prodding to effect positive changes at the agency.    This committee has passed several pieces of bipartisan legislation that would go a long way towards improving the overall security of airports, as well as improving checkpoint optimization. But the Senate refused to expedite passage of these important bills, standing on principle or some esoteric theory about how the agency should be run. In short, they are trying to polish the brass while the fire bell is ringing.    For example, my TSA PreCheck bill would require TSA to expand and aggressively market the program, thereby increasing the number of trusted travelers into the system, diverting them into PreCheck checkpoints, and alleviating the stress on the general public checkpoints. However, due to typical Washington antics, this bill, amongst others, remains stalled.    When I came to Congress I made a commitment to my constituents to tackle problems head on and just get things done. Last week, the subcommittee convened representatives from airports and airlines from across this country to discuss this wait time crisis and hear directly from them about what they think needs to be done to help. It was a very productive meeting, and it gave me faith that the process in Congress can and does work sometimes.    The message was consistent: TSA needs to collaborate with individual airlines and airport authorities to coordinate sufficient staffing levels on a local basis.    I have heard your message, and later today I will introduce the Checkpoint Optimization and Efficiency Act of 2016, which will require TSA to maximize all of their available resources and give airports and airlines a seat at the table to ensure those resources are being utilized and allocated in the most effective and efficient manner.    Make no mistake, security is first and foremost. Those that wish to do us harm continue to plot against the aviation community, and we must be ready to confront them at every turn. But TSA has to find a way to maintain security while fulfilling its duty to keep passengers safely moving through the system. They have the capability to do it. TSA has to be forward-leaning and creative to address obstacles as they present themselves, just like all of us do in our daily jobs.    I would like to thank our witnesses for taking time out of their busy schedules and making multiple trips on short notice to Washington to aid us in solving this problem. I am lucky, honored, and fortunate to have the Syracuse International Airport, which I fly in and out of each week, as the well-oiled machine that it is, compared to the horror stories we heard at last week's roundtable discussion on checkpoint efficiency. I have Christina Callahan, one of the witnesses here, to thank for that.    I would like to thank all of you for being here today, and I look forward to hearing your perspective on the best and most effective way forward.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412506</t>
   </si>
   <si>
+    <t>Payne</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Payne. Thank you, Mr. Chairman. I wore them just for you.</t>
   </si>
   <si>
@@ -76,18 +91,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Callahan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Callahan. Thank you. Good morning. Chairman Katko and Ranking Member Payne, and to the other Members of the Transportation Security Committee, thank you. Thank you for inviting us to today's hearing on an issue that requires both immediate attention and long-term sustainable solutions: How to handle growing lines at TSA checkpoints at airports across the country while maintaining the high standards for passenger and baggage screening we need in order to keep the flying public safe.    Syracuse International Airport is a small commercial hub serving 2 million passengers annually, providing cargo and general aviation services to central New York. It employs hundreds of people and is a vital component of our economy. As an origination and destination airport, we serve 17 direct markets and we are the departure point for 1 million outbound passengers every year.    While Syracuse has not experienced the recent increased long security checkpoint times, we are part of a National transportation system that links our passengers to the airports represented here today, and working towards a solution as we enter one of the busiest travel seasons in the year is as important to Syracuse as it is to my fellow airports. What I hope to offer today, in addition to echoing my fellow airports' concerns, are examples of the steps we have taken to address our issues at home.    Ensuring the security and safety of the flying public, employees, and other airport users is the top priority for airports. Above all else, we are entrusted by the traveling public to provide safe and secure air transportation. Checkpoint wait times that exceed an hour or longer at some of our Nation's busiest airports have negative impacts on all elements of the air transportation system. Passengers are frustrated, taking their frustrations out on TSA, airport, and airline employees. The anxiety caused by concern over missing a flight, or even worse, missing that flight, creates an environment that is already challenged and difficult.    Several factors have been identified that have contributed to the checkpoint wait time issues. They include no increase in the number of Transportation Security Officers between fiscal years 2015 and 2016, the high rate of TSO attrition followed by the lengthy process to hire new TSOs, record growth in passenger traffic and lagging numbers in PreCheck enrollment. Combined, they have created a perfect storm that has led to recent events.    Working together, the airports, TSA, the airlines, and industry advocates have identified short- and long-term recommendations that focus on key areas, including the need for sufficient TSA staffing, increased PreCheck enrollment and participation, and the continued need to modernize airport infrastructure. We do not, however, support the imposition of any new passenger fees. Rather, we believe that the portion of the 9/11 passenger security fees that are currently being used to pay for other Government programs should be used to fund     Let me talk about PreCheck for just a moment. Chairman Katko was at the airport last November when we unveiled the TSA enrollment center in Syracuse. PreCheck has proven to be very successful at our airports. Currently, almost 40 percent of the flying public is enrolled in PreCheck.    While we believe that this is the result of having an enrollment center in the terminal, our efforts to educate the public on the benefits of PreCheck have been very important. While seemly insignificant, the airport's role in incentivizing people to enroll in PreCheck by giving them free parking has resulted in the increased numbers of people enrolling. While not all airports are in a position to offer incentives, we have found that it has encouraged enough people to come out and spend an hour and enroll in PreCheck.    I would be remiss if I did not bring up the need to modernize airport infrastructure. We have spent time and money improving our airport, consolidating our checkpoint into one central checkpoint, to introduce efficiencies at every level. A central checkpoint was designed to bring the physical screening of passengers and baggage in alignment. It improved passenger and baggage screening at several levels. It allowed for the introduction of new screening equipment, consolidated TSA resources into one, and it has allowed us to implement new security requirements, such as the screening of all concession employees.    We have also been on the cutting edge of security by installing automated exit portals. These automated exit portals allow passengers and employees to exit the concourses safely and securely, without--preventing re-entry. It also eliminates the need to staff the exit lanes, thus saving the airport money and reducing the human error element. Let me stress that this project would not have been possible without the use of the airport's passenger facility charges.    To place the blame solely on TSA is unfair and not a solution to the problem. Rather, we must work together to address the major underlying issues before you today.    In closing, I would like to offer my gratitude to Chairman Katko and to the other Members of the subcommittee for taking the time to listen to our concerns. Thank you for inviting us and for your continued commitment to the safety and security of airports and the people who use them every day.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Katko. Thank you, Ms. Callahan. Syracuse is indeed very fortunate to have you at the helm at the airport. I can tell you from personal experience that it is a generally very pleasurable experience. The only thing that is difficult is when you are trying to get a flight to Kennedy and it always seemed to be delayed.    But other than that, I really appreciate your efforts. Your forward thinking on getting a kiosk out at the airport, your forward thinking by giving free parking to TSA as like a marketing thing, that thinking outside the box, that is all good stuff. So thank you very much.    I would like to have Ms. McSally introduce her friend from the Tucson airport.    Ms. McSally.</t>
   </si>
   <si>
+    <t>McSally</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Chairman Katko. I just want to say I really appreciate you being my wingman on this issue and many issues, letting me join this hearing today. I am also grateful for you inviting Bonnie Allin to testify this morning.    Bonnie is the president and CEO of the Tucson Airport Authority responsible for promoting aviation services and related economic development for southern Arizona, including operations and maintenance of the Tucson International Airport and Ryan Airfield, where she has first-hand experience on the challenges related to TSA staffing.    Bonnie began her career in aviation in 1976 with the Tucson Airport Authority, then moved to Texas, where she worked for Corpus Christi International, ending her tenure as director of aviation. She holds the designation of accredited airport executive and is the past chairman of the International Association of Airport Executives.    I am glad to have Bonnie with us today, and I yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Katko. Ms. Allin, you are on.</t>
   </si>
   <si>
+    <t>Allin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Allin. Thank you, Representative McSally, for the introduction.    Good morning, Chairman Katko, Ranking Member Payne, honorable Members of the committee, Representative McSally. It is a privilege to appear before you this morning to discuss Tucson's challenges with passenger screening wait times.    Mr. Chairman and Members, thank you for your leadership on airport security and the protection of our passengers.    Representative McSally, thank you for your leadership in protecting Tucson International Airport in southern Arizona.    I was fortunate to participate in last week's roundtable, which you mentioned, Mr. Chairman, and the discussion, and I am truly appreciative of the time and attention you are devoting to understanding the causes of checkpoint processing delays and your efforts to seek both short- and long-term solutions. Safety and security of our people, property, and aircraft are the highest priority.    For those of you unfamiliar with Tucson International Airport, we are an origination and destination airport. Therefore, less than 5 percent of our passengers connect through. Instead, all are screened by local TSA. Historical wait times average 10 to 15 minutes, with our peak times rarely exceeding 20, 25 minutes maximum, even when we had passenger levels 25 percent higher than we do today.    Tucson's high season, as opposed to many other airports, is November through March, with a very strong peak season mid-January through March.</t>
   </si>
   <si>
@@ -100,18 +124,27 @@
     <t xml:space="preserve">    Mr. Katko. Thank you, Ms. Allin, for your testimony. We appreciate you being here today. It is interesting to juxtapose your experiences at your airport with what we experience in Syracuse. It seems like the larger the airport, the more acute the problems.    Now we are going to talk to Ms. Beairsto about that.    So, Ms. Beairsto, I appreciate your testimony today, and you have 5 minutes. Thank you.</t>
   </si>
   <si>
+    <t>Beairsto</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Beairsto. Thank you, Chairman Katko, Ranking Member Payne, and Members of the subcommittee for inviting me to testify today on this important issue of providing efficient and safe passenger screening at our airports. My name is Lydia Beairsto. I serve as the managing deputy commissioner for public safety and security for the Chicago Department of Aviation, overseeing O'Hare and Midway International Airports.    Chicago manages 2 of the Nation's busiest airports, O'Hare and Midway, and it is the only single-city system that serves as a hub for 3 major airlines, United, American, and Southwest Airlines. In 2015, 98 million passengers passed through our airports combined. In 2016 and beyond, those numbers are projected to grow.    Our airports serve as an economic engine, contributing $45 billion in annual economic activity, creating 540,000 jobs. We are a major part of the air ecosystem. When O'Hare sneezes, the rest of the country catches a cold.    Passenger safety and security is our top priority, and it is certainly mine. In March, suicide bombings at Brussels Airport killed 16 people in the airport check-in areas and 16 others in the city metro station. Long security lines, large crowds of passengers in queues are not just an inconvenience. They, themselves, expose a vulnerability and security risk.    By more efficiently moving passengers into the screened and secure areas, we are increasing safety and security. This year, there has been a 7 percent growth in passenger activity, while TSA staffing levels declined nearly 17 percent.    Airports and airlines began raising concerns about security staffing for the summer travel season as early as last summer. By early May of this year, as our peak travel season started, we started experiencing a total breakdown. Passenger wait times were consistently 60 minutes or more. Airline passengers have reported wait times as high as 120 minutes, with thousands of passengers missing their flights.    The delays we experienced were knowable and preventable. Staff resources went down as security operating procedures changed.    Moving forward to address these issues, TSA resources are needed to increase and meet passenger demand. TSA needs to manage existing resources better. TSA needs flexibility and local authority to respond to situations on the ground.    May 13, a traveler at Midway Airport posted a YouTube video documenting significant checkpoint lines. Six out of 17 lanes were staffed by TSA.    At O'Hare, the situation reached crisis point on Sunday, May 15, where without adequate staffing American Airlines reported 543 passengers were impacted by long lines. United Airlines experienced 37 flight delays and rebooked over 4,300 passengers, many of which, as you noted, Chairman, stayed overnight at the airport sleeping on cots.    Mayor Rahm Emanuel worked with key officials from DHS, TSA, and members of Chicago's Congressional delegation to secure immediate resources for the city. TSA sent in optimization teams. They committed to add 58 officers to O'Hare, converted over 160 part-timers to a full-time duty, increased overtime, and provided 8 additional K-9 teams to O'Hare from around the country.    We greatly appreciate Administrator Neffenger's responsiveness and that resources arrived so quickly for O'Hare. We are working to ensure similar prompt responses to the needs and concerns at Midway Airport.    This response was possible because Congress approved TSA's reprogramming request, and we are grateful to you for taking that quick action.    To ensure transparency, we will be releasing a biweekly scorecard showing average and maximum wait times, staffing and resource levels provided by TSA.    In the short term, in order to manage the spring and summer travel season ahead, there are a few critical resources and management steps that we need to ensure are happening:    Reallocate passenger-screening K-9 teams based on the aviation system priorities.    Ensure TSA is transparent about its staffing allocation models and levels; information transparency helps us better predict potential staffing strategies and shortages.    Provide Federal security directors the ability to make local decisions about manpower allocation and overtime.    Ensure checkpoints are open on time or risk playing catch-up all day.    Streamline TSA PreCheck enrollment process.    In the long term we need to be looking at ramping up resources, including passenger screening K-9s. To prepare for future growth, we need to start now, as training K-9s can take approximately up to 8 months. We need to invest in our security infrastructure and checkpoint expansion projects and invest in technology solutions that enhance security and achieve operational efficiencies.    Thank you for the opportunity to discuss these important and timely issues with you today. We are eager to work with you and secure needed resources to address short-term and long-term airport security challenges.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Katko. Thank you, Ms. Beairsto. Much of what you described towards the end of your testimony is embodied in the bill we are going to be presenting today to Congress. It is born out of our discussions with some of the folks in the audience last week and some of you, and I appreciate that. It is important.    One side thing that you said that caught me was opening the gates on time. If I understand, and perhaps you can all comment on this later, sometimes they open the gate at, like, 5:30 in the morning, but they don't actually start screening passengers for a while because they have to calibrate the machines and stuff. Then once the back-up starts, you can't catch up. That is just poor planning.    So there is much more to talk about with all of, but thank you very much for your testimony.    I now recognize Ms. Kerry Philipovitch, the senior vice president for customer experience at American Airlines--which I know very well because that is how I get here every week--for her testimony.</t>
   </si>
   <si>
+    <t>Philipovitch</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Philipovitch. Thank you for flying with us.    Good morning Chairman Katko, Congressman Payne, and Members of the subcommittee. My name is Kerry Philipovitch, senior vice president of customer experience at American Airlines, testifying on behalf of Airlines for America. Thank you for inviting me here today to discuss the impact TSA security lines is having on our customers.    There is nothing more important to the airline industry than the safety and security of our passengers, employees, and cargo. We have never seen TSA wait times that affect airlines and passengers throughout the United States like we have seen in recent months.    Without immediate leadership and innovation, the 231 million Americans that will board a plane this summer will be frustrated and angry. We are working collaboratively with the TSA to develop and implement solutions to the pressing problem of excessive wait times.    Last year, programs that had been in place to drive efficiency and increase security throughput were eliminated without adding resources required to support longer passenger processing times. The result is a screening process that is causing unacceptably long security lines and a frustrated flying public.    Our discussions with TSA revealed 3 other contributing factors. First, it appears TSA did not adjust its staffing model after screening protocols were changed. Second, TSA is experiencing abnormally high attrition and is unable to retain transportation security officers, or TSOs. Third, the TSA PreCheck program, which allows low-risk passengers to go through expedited screening, has not met enrollment goals.    All of these factors combined cause a systemic slowdown in passenger processing at security checkpoints, resulting in delays and missed flights. Year-to-date, more than 70,000 American Airlines customers have missed flights due to excessive wait times.    The same challenges at the passenger checkpoints bog down screening of checked baggage, which is also a core TSA function. This year alone, over 40,000 checked bags were delayed in TSA screening and did not travel on their scheduled flights.    To say customers are agitated is putting it mildly and the public outcry has resonated. Congress recently reallocated $34 million in funding to the TSA to hire more TSOs by June 15. We are also glad to see that TSA is working to shift K-9 teams to airports experiencing the worst delays, rebalancing staffing, and hiring more TSOs.    However, TSA needs to do more, and more collaboration is needed to minimize the impact on summer travelers, airports, airline employees, and the overall economy.    Airlines are pitching in to do our part. We are committing millions of dollars to fund nonsecurity functions like bin running and queue management so TSAs can focus solely on screening customers.    At American this summer, we are adding an additional $4 million on top of the $17 million already planned to spend this year to facilitate passengers through TSA checkpoints at our largest airports. Airlines have advised customers to arrive at the airport 2 hour in advance of a domestic flight and 3 hours prior to an international departure to ensure sufficient time to clear security. This added time in the travel process is inconvenient and will likely affect less frequent travelers who are not familiar with the screening process.    We are launching aggressive campaigns to promote TSA PreCheck to our customers and employees. As PreCheck enrollment increases, however, TSA must commit to keep PreCheck lanes open and sufficiently staffed throughout the day, especially during peak travel times.    The industry is also exploring ways to facility support for additional K-9 teams, including whether TSA can use certified K-9s from other Governmental agencies to conduct passenger screening. When K-9 teams are deployed, TSA can increase passengers going through TSA PreCheck.    We as an industry are doing our part to help TSA manage through this challenge. However, airline actions alone cannot solve the problem. We need a partner in TSA that will consider innovative ideas to mitigate wait times immediately and in the long run.    In the short term, to augment resources, TSA could declare an all-hands-on-deck for the summer, much like we do at our airports during peak and irregular operations. All available staff should be assigned to help at passengers screening checkpoints. TSA resources should be prioritized based on airports with the most need and projected traffic volumes.    TSA could look at ways to spur enrollment in TSA PreCheck by streamlining the enrollment process. To ensure that enrollment resources don't become a new bottleneck, TSA should expedite its selection of third-party enrollment providers.    We also support the idea to give Federal security directors the ability to cooperate with their airline partners to make local decisions about manpower resource allocation without having to consult TSA headquarters.    All parties need to work collaboratively to manage through the summer. Full transparency to staffing models and performance data is required to engage all stakeholders in troubleshooting issues. We can't be a part of the solution if we don't have all the facts.    To that point, we applaud TSA for its decision this week to stand up a National command center and institute daily stakeholder calls to better prepare for each day's challenges.    In the long run, TSA could review current security protocols to ensure there are no unnecessary procedures. As part of this review, TSA should consider additional methods for increasing risk-based screening, some of which were discontinued this year.    Airlines and airports are eager to work with TSA to expedite next-generation screening technology, including innovation lanes.    Finally, TSA must create a position that reports to the administrator to advocate for customers within the TSA, much as airlines and many airports have executives dedicated to improving customer experience.    These are just a few ideas that American Airlines and A4A believe can help reduce the congestion in security screening. Of course, Congress can help by ensuring Administrator Neffenger and his team have the tools and resources needed to improve screening, including ensuring that the passenger security fee collected for TSA goes to TSA.    Ultimately, the TSA screening issue was not created overnight and will not be solved overnight. However, we must work together to offer ideas and resources to TSA while Administrator Neffenger and his team review current screening protocols, funding priorities, and management practices.    Thank you for the opportunity to testify today, and I would be happy to answer any questions you might have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Katko. Thank you, Ms. Philipovitch. I appreciate your testimony.    We will have several follow-up questions for all of you, of course.    I now recognize David Cox, National president of the American Federation of Government Employees, for his testimony.    Mr. Cox.</t>
   </si>
   <si>
+    <t>Cox</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cox. Thank you, Mr. Chairman, Representative Payne, Members of the committee. I am proud to testify today on behalf of the 42,000 transportation security officers, TSOs, that AFGE represents that stand on the side of the safety of the flying American public.    TSOs point to 4 issues that have conspired to produce the acute situation at airports we see today. No. 1, the size of the TSO workforce did not keep pace with passenger volume. No. 2, TSA's budget was deprived of much-needed funding by the decision of Congress to divert a portion of the security fee to deficit reduction. No. 3, the focus on the patchwork of airline, airport, and contract employees shifted focus away from the TSO workforce that is the present and future of aviation security. No. 4, TSOs are subject to second-class treatment that hurts the morale of TSOs who stay on the job and causes too many experienced screeners to leave TSA.    As passenger volume has increased 15 percent between 2013 and 2016, TSA lost almost 5,000 screeners and failed to replace them. TSA's hiring was focused on part-time workers who have a much higher attrition rate than full-time TSOs. TSA's staffing methodology and model depended on PreCheck enrollments that never happened. Congress cut the budget for TSA personnel and imposed arbitrary caps on the number of full-time screeners.    Staffing shortages are obvious to the public because they experience long lines. Least obvious are the effect of shortages on the TSO workforce--missed trainings, meals, and rest breaks, missed position rotations that are necessary to keep your focus, cancelled days off, and months of mandatory overtime, resulting in very tired and erratic scheduling. This is no way to run airport security.    AFGE advocates an increase of 6,000 additional full-time TSOs to the workforce. The figure represents the decrease in the size of the TSA workforce since 2011 as passenger volume has grown 15 percent.    AFGE also calls on Congress to end the arbitrary and severe cap on full-time TSOs. When Congress voted to divert 60 cents of the $5.60 security fee per enplanement to the Treasury rather than TSA, it deprived the agency of 1.25 billion--that is billion with a ``b''--dollars each year. It is time for Congress to dedicate the proceeds of the security fee to TSA to be used for its intended purpose, funding the agency's security mission and hiring staff.    Introducing airline and airport employees and private contract employees into the framework of checkpoint security is, at best, a temporary bandage. Years of on-the-job experience and commitment to the public are the services that are lost when the TSO workforce is replaced with airport and airline employees.    Airport authorities should be aware that they are not going to get more screeners under the Screening Partnership Program and that there are long checkpoint waits at airports with private screeners.    Despite the importance of their work, TSOs receive second-class treatment from their employer, the Federal Government. TSA is the only Federal agency that is allowed to excuse itself from the fundamental workplace rights and protections found in title 5 of the U.S. Code. TSA does not follow the Fair Labor Standards Act and the Office of Personnel Management guidelines on leave. TSA does not have statutory title 7 protections against discrimination, and they are not paid under the general schedule like the majority of Federal workforce. TSOs lack the ability to appeal adverse personnel actions to a neutral third party, like the Merit System Protection Board, even those TSO management has that right.    To paraphrase the late Dr. Martin Luther King, Jr., justice delayed has been justice denied to the TSO workforce. It is well within the authority of both the Congress and TSA to provide TSOs the same workplace rights and protections as other Federal workers.    We urge Administrator Neffenger to apply title 5 rights and protections to the TSO workforce. Congress should pass H.R. 4488, the Rights of Transportation Security Officers Act, introduced by Representatives Bennie Thompson and Nita Lowey. The bill requires that TSA follow the same workplace rules as most agencies in the Federal Government. Congress should also ensure funding to TSA to provide 5 percent retention raises to TSOs who have been on the job for 2 or more years.    Transportation Security Officers do all they can to screen passengers. That is why AFGE pledges to work with TSA, Congress, and the public on solutions for the long lines. Mr. Chairman, AFGE is asking and seeking a seat at the table to be part of the solution, not part of the problem, in what we are currently experiencing in TSA.    Thank you very much for allowing me to testify today. I would be glad to take any questions.</t>
   </si>
   <si>
@@ -211,6 +244,12 @@
     <t>412622</t>
   </si>
   <si>
+    <t>Carter</t>
+  </si>
+  <si>
+    <t>Buddy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman.    Thank all of you for being here. This is obviously a very important subject to us. I am glad to see you all because I have some important questions I want to ask you.    I have the honor and privilege of representing the First Congressional District of Georgia. That includes the entire coast of Georgia. Georgia is unique in the sense that we have a lot of small airports, a lot of rural areas. We also, as you know, have Hartsfield-Jackson Airport, which is the busiest airport in the country, in the world. That presents a dilemma. But I want to ask you some questions about that, and I am very interested to know your responses to this.    What we have been hearing and what I have been hearing from a lot of the airport officials is that there exists somewhat of a disconnect between the local TSA officials, the airlines, the airport officials, and then upper management, that management in TSA up here in Washington, DC, if you will. Have any of you experienced that? Can you comment on that? Ms. Allin or whoever wants to comment. Just very quickly, because I have a bunch here.</t>
   </si>
   <si>
@@ -275,6 +314,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Katko. Thank you, Mr. Carter.    I ask unanimous consent that the gentlelady from Texas, Ms. Jackson Lee, be allowed to sit on the dais and participate in this hearing.    Without objection, so ordered.</t>
+  </si>
+  <si>
+    <t>Jackson Lee</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Let me express my appreciation to the Chairman and the Ranking Member for your courtesies. This is a committee that I have a great affection for because I indicated before that the TSOs are the first line of defense, if you will, for the neighborhood, for the Nation's aviation security. So let me thank all of you for your presence here.    I have some direct questions and then I want to raise a series of questions with Mr. Cox. Thank you very much for representing very fine professional staff, which I want to be more professional, less part-time, more recruitment, increased salaries, and the numbers that you would like to have.    So I would ask the representative from Chicago, Illinois, the admiral was here just yesterday, and I understand that the wait has gone to 15 minutes. I would like to see what--you are obviously here today, Thursday--I would like to hear your assessment. Have the lines improved, the time and the waits improved?</t>
@@ -812,7 +854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -820,7 +862,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,3269 +884,3784 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s">
+        <v>36</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
       <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>18</v>
+      </c>
       <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
       <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
       <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G52" t="s">
+        <v>76</v>
+      </c>
       <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G54" t="s">
+        <v>76</v>
+      </c>
       <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G56" t="s">
+        <v>76</v>
+      </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s">
+        <v>39</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G58" t="s">
+        <v>76</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s">
+        <v>39</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>64</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G60" t="s">
+        <v>76</v>
+      </c>
       <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s">
+        <v>39</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>64</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G62" t="s">
+        <v>76</v>
+      </c>
       <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s">
+        <v>39</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>64</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G64" t="s">
+        <v>76</v>
+      </c>
       <c r="H64" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s">
+        <v>39</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>64</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G66" t="s">
+        <v>76</v>
+      </c>
       <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s">
+        <v>39</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>64</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G68" t="s">
+        <v>76</v>
+      </c>
       <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s">
+        <v>42</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>64</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G70" t="s">
+        <v>76</v>
+      </c>
       <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s">
+        <v>42</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>64</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G72" t="s">
+        <v>76</v>
+      </c>
       <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s">
+        <v>100</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G75" t="s">
+        <v>36</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s">
+        <v>100</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s">
+        <v>36</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s">
+        <v>100</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s">
+        <v>36</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s">
+        <v>100</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s">
+        <v>36</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G82" t="s">
+        <v>100</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s">
+        <v>36</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G84" t="s">
+        <v>100</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s">
+        <v>36</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s">
+        <v>100</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G87" t="s">
+        <v>36</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s">
+        <v>100</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G89" t="s">
+        <v>36</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s">
+        <v>100</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s">
+        <v>36</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s">
+        <v>100</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G93" t="s">
+        <v>36</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s">
+        <v>100</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G95" t="s">
+        <v>39</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s">
+        <v>100</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G97" t="s">
+        <v>39</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s">
+        <v>100</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G99" t="s">
+        <v>39</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s">
+        <v>100</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>19</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G101" t="s">
+        <v>39</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s">
+        <v>100</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>19</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G103" t="s">
+        <v>39</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>19</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s">
+        <v>100</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G105" t="s">
+        <v>39</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>19</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s">
+        <v>100</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G107" t="s">
+        <v>39</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>19</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s">
+        <v>100</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
       <c r="H109" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>19</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s">
+        <v>100</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
       <c r="H111" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>19</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G112" t="s">
+        <v>100</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G113" t="s">
+        <v>42</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>19</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G114" t="s">
+        <v>100</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
       <c r="H115" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>19</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G116" t="s">
+        <v>28</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>19</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G117" t="s">
+        <v>31</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>19</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G118" t="s">
+        <v>28</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>19</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G119" t="s">
+        <v>31</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>19</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G120" t="s">
+        <v>28</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G121" t="s">
+        <v>31</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>19</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G122" t="s">
+        <v>28</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G123" t="s">
+        <v>31</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>19</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G124" t="s">
+        <v>28</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G125" t="s">
+        <v>36</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>19</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G126" t="s">
+        <v>28</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>19</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G127" t="s">
+        <v>42</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>19</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G128" t="s">
+        <v>28</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>13</v>
+      </c>
       <c r="H129" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G130" t="s">
+        <v>18</v>
+      </c>
       <c r="H130" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I130" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G131" t="s">
+        <v>13</v>
+      </c>
       <c r="H131" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G132" t="s">
+        <v>18</v>
+      </c>
       <c r="H132" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I132" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>19</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G133" t="s">
+        <v>28</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G134" t="s">
+        <v>18</v>
+      </c>
       <c r="H134" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I134" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>19</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G135" t="s">
+        <v>28</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G136" t="s">
+        <v>18</v>
+      </c>
       <c r="H136" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I136" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>13</v>
+      </c>
       <c r="H137" t="s">
-        <v>149</v>
+        <v>14</v>
+      </c>
+      <c r="I137" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg23246.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg23246.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412649</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Katko</t>
   </si>
   <si>
@@ -68,6 +74,9 @@
   </si>
   <si>
     <t>412506</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Payne</t>
@@ -854,7 +863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:J137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -862,7 +871,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -887,3781 +896,4024 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" t="s">
-        <v>42</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" t="s">
-        <v>42</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>39</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" t="s">
-        <v>36</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>34</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" t="s">
-        <v>25</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I54" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>34</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" t="s">
-        <v>39</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>42</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" t="s">
-        <v>39</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>42</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>24</v>
-      </c>
-      <c r="G61" t="s">
-        <v>39</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>42</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H62" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" t="s">
-        <v>39</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>42</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H64" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I64" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" t="s">
-        <v>39</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>42</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H66" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67" t="s">
-        <v>39</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>42</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H68" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I68" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>24</v>
-      </c>
-      <c r="G69" t="s">
-        <v>42</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>45</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H70" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I70" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" t="s">
-        <v>42</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>45</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G72" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H72" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I72" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
-      </c>
-      <c r="G74" t="s">
-        <v>100</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>103</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" t="s">
-        <v>36</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>39</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" t="s">
-        <v>100</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" t="s">
-        <v>36</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>39</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G78" t="s">
-        <v>100</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>103</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" t="s">
-        <v>36</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>39</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>24</v>
-      </c>
-      <c r="G80" t="s">
-        <v>100</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>103</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" t="s">
-        <v>36</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>39</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>24</v>
-      </c>
-      <c r="G82" t="s">
-        <v>100</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>103</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" t="s">
-        <v>36</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>39</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>24</v>
-      </c>
-      <c r="G84" t="s">
-        <v>100</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>103</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
-      </c>
-      <c r="G85" t="s">
-        <v>36</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>39</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86" t="s">
-        <v>100</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>103</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G87" t="s">
-        <v>36</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>39</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" t="s">
-        <v>100</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>103</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>24</v>
-      </c>
-      <c r="G89" t="s">
-        <v>36</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>39</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" t="s">
-        <v>100</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>103</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>24</v>
-      </c>
-      <c r="G91" t="s">
-        <v>36</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>24</v>
-      </c>
-      <c r="G92" t="s">
-        <v>100</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>103</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>24</v>
-      </c>
-      <c r="G93" t="s">
-        <v>36</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>39</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>24</v>
-      </c>
-      <c r="G94" t="s">
-        <v>100</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>103</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>24</v>
-      </c>
-      <c r="G95" t="s">
-        <v>39</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>42</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>24</v>
-      </c>
-      <c r="G96" t="s">
-        <v>100</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>103</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>24</v>
-      </c>
-      <c r="G97" t="s">
-        <v>39</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>42</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>24</v>
-      </c>
-      <c r="G98" t="s">
-        <v>100</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>103</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>24</v>
-      </c>
-      <c r="G99" t="s">
-        <v>39</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>42</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>24</v>
-      </c>
-      <c r="G100" t="s">
-        <v>100</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>103</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>24</v>
-      </c>
-      <c r="G101" t="s">
-        <v>39</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>42</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>24</v>
-      </c>
-      <c r="G102" t="s">
-        <v>100</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>103</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>24</v>
-      </c>
-      <c r="G103" t="s">
-        <v>39</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>42</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>24</v>
-      </c>
-      <c r="G104" t="s">
-        <v>100</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>103</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G105" t="s">
-        <v>39</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>42</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>24</v>
-      </c>
-      <c r="G106" t="s">
-        <v>100</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>103</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>24</v>
-      </c>
-      <c r="G107" t="s">
-        <v>39</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>42</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>24</v>
-      </c>
-      <c r="G108" t="s">
-        <v>100</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>103</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>24</v>
-      </c>
-      <c r="G110" t="s">
-        <v>100</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>103</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I111" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J111" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>24</v>
-      </c>
-      <c r="G112" t="s">
-        <v>100</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>103</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>24</v>
-      </c>
-      <c r="G113" t="s">
-        <v>42</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>45</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>24</v>
-      </c>
-      <c r="G114" t="s">
-        <v>100</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>103</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>24</v>
-      </c>
-      <c r="G116" t="s">
-        <v>28</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>31</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>24</v>
-      </c>
-      <c r="G117" t="s">
-        <v>31</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>34</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>24</v>
-      </c>
-      <c r="G118" t="s">
-        <v>28</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>31</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>24</v>
-      </c>
-      <c r="G119" t="s">
-        <v>31</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>34</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>24</v>
-      </c>
-      <c r="G120" t="s">
-        <v>28</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>31</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>24</v>
-      </c>
-      <c r="G121" t="s">
-        <v>31</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>34</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>24</v>
-      </c>
-      <c r="G122" t="s">
-        <v>28</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>31</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>24</v>
-      </c>
-      <c r="G123" t="s">
-        <v>31</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>34</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>24</v>
-      </c>
-      <c r="G124" t="s">
-        <v>28</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>31</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>24</v>
-      </c>
-      <c r="G125" t="s">
-        <v>36</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>39</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>24</v>
-      </c>
-      <c r="G126" t="s">
-        <v>28</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>31</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>24</v>
-      </c>
-      <c r="G127" t="s">
-        <v>42</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>45</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>24</v>
-      </c>
-      <c r="G128" t="s">
-        <v>28</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>31</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I129" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J129" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G130" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H130" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I130" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J130" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I131" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J131" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G132" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H132" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I132" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J132" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>24</v>
-      </c>
-      <c r="G133" t="s">
-        <v>28</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>31</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G134" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H134" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I134" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J134" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>24</v>
-      </c>
-      <c r="G135" t="s">
-        <v>28</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>31</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G136" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H136" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I136" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I137" t="s">
-        <v>163</v>
+        <v>16</v>
+      </c>
+      <c r="J137" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
